--- a/Health Tracker.xlsx
+++ b/Health Tracker.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tejas Srivatsav\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tejas Srivatsav\Health Tracking\Health-Tracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD3DD44C-B672-4979-8C64-CDF3EBA6A0E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84B844D0-A135-4B04-86E1-F455C5DC8A1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="9960" xr2:uid="{90E82339-6802-4A1C-BF53-9E12DBCFBAFB}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{90E82339-6802-4A1C-BF53-9E12DBCFBAFB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -422,10 +422,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{736870FE-D46B-4E9F-98AE-0ACDFD702F2E}">
-  <dimension ref="A1:I61"/>
+  <dimension ref="A1:I235"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="F56" sqref="F56"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A220" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -474,736 +475,449 @@
       <c r="A2" s="2">
         <v>44927</v>
       </c>
-      <c r="B2" s="1">
-        <v>3200</v>
-      </c>
-      <c r="C2" s="1">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="D2" s="1">
-        <v>32.1</v>
-      </c>
-      <c r="E2" s="1">
-        <v>115</v>
-      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
-      <c r="I2" s="1">
-        <v>188</v>
-      </c>
+      <c r="I2" s="1"/>
     </row>
     <row r="3" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>44928</v>
       </c>
-      <c r="B3" s="1">
-        <v>3000</v>
-      </c>
+      <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
-      <c r="F3" s="1">
-        <v>135</v>
-      </c>
+      <c r="F3" s="1"/>
       <c r="G3" s="1"/>
-      <c r="H3" s="1">
-        <v>1</v>
-      </c>
-      <c r="I3" s="1">
-        <v>188</v>
-      </c>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
     </row>
     <row r="4" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>44929</v>
       </c>
-      <c r="B4" s="1">
-        <v>2800</v>
-      </c>
-      <c r="C4" s="1">
-        <v>1.3</v>
-      </c>
-      <c r="D4" s="1">
-        <v>10</v>
-      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
-      <c r="G4" s="1">
-        <v>135</v>
-      </c>
-      <c r="H4" s="1">
-        <v>1</v>
-      </c>
-      <c r="I4" s="1">
-        <v>189</v>
-      </c>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
     </row>
     <row r="5" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>44930</v>
       </c>
-      <c r="B5" s="1">
-        <v>2250</v>
-      </c>
-      <c r="C5" s="1">
-        <v>1.5</v>
-      </c>
-      <c r="D5" s="1">
-        <v>12</v>
-      </c>
-      <c r="E5" s="1">
-        <v>120</v>
-      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
-      <c r="H5" s="1">
-        <v>1</v>
-      </c>
-      <c r="I5" s="1">
-        <v>187</v>
-      </c>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
     </row>
     <row r="6" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>44931</v>
       </c>
-      <c r="B6" s="1">
-        <v>2450</v>
-      </c>
+      <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
-      <c r="I6" s="1">
-        <v>184</v>
-      </c>
+      <c r="I6" s="1"/>
     </row>
     <row r="7" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>44932</v>
       </c>
-      <c r="B7" s="1">
-        <v>2350</v>
-      </c>
-      <c r="C7" s="1">
-        <v>2.6</v>
-      </c>
-      <c r="D7" s="1">
-        <v>20</v>
-      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
-      <c r="G7" s="1">
-        <v>135</v>
-      </c>
-      <c r="H7" s="1">
-        <v>1</v>
-      </c>
-      <c r="I7" s="1">
-        <v>186</v>
-      </c>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
     </row>
     <row r="8" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>44933</v>
       </c>
-      <c r="B8" s="1">
-        <v>2500</v>
-      </c>
-      <c r="C8" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="D8" s="1">
-        <v>5</v>
-      </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
-      <c r="I8" s="1">
-        <v>185</v>
-      </c>
+      <c r="I8" s="1"/>
     </row>
     <row r="9" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>44934</v>
       </c>
-      <c r="B9" s="1">
-        <v>2500</v>
-      </c>
-      <c r="C9" s="1">
-        <v>3.7</v>
-      </c>
-      <c r="D9" s="1">
-        <v>30</v>
-      </c>
-      <c r="E9" s="1">
-        <v>120</v>
-      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
-      <c r="I9" s="1">
-        <v>184</v>
-      </c>
+      <c r="I9" s="1"/>
     </row>
     <row r="10" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>44935</v>
       </c>
-      <c r="B10" s="1">
-        <v>2300</v>
-      </c>
+      <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
-      <c r="F10" s="1">
-        <v>135</v>
-      </c>
+      <c r="F10" s="1"/>
       <c r="G10" s="1"/>
-      <c r="H10" s="1">
-        <v>1</v>
-      </c>
-      <c r="I10" s="1">
-        <v>185</v>
-      </c>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
     </row>
     <row r="11" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>44936</v>
       </c>
-      <c r="B11" s="1">
-        <v>2150</v>
-      </c>
-      <c r="C11" s="1">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="D11" s="1">
-        <v>8.5</v>
-      </c>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
-      <c r="G11" s="1">
-        <v>155</v>
-      </c>
-      <c r="H11" s="1">
-        <v>1</v>
-      </c>
-      <c r="I11" s="1">
-        <v>184</v>
-      </c>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
     </row>
     <row r="12" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>44937</v>
       </c>
-      <c r="B12" s="1">
-        <v>3000</v>
-      </c>
+      <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
-      <c r="E12" s="1">
-        <v>130</v>
-      </c>
+      <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
-      <c r="H12" s="1">
-        <v>1</v>
-      </c>
-      <c r="I12" s="1">
-        <v>183</v>
-      </c>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
     </row>
     <row r="13" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>44938</v>
       </c>
-      <c r="B13" s="1">
-        <v>2100</v>
-      </c>
-      <c r="C13" s="1">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="D13" s="1">
-        <v>45</v>
-      </c>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
       <c r="E13" s="1"/>
-      <c r="F13" s="1">
-        <v>135</v>
-      </c>
+      <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
-      <c r="I13" s="1">
-        <v>185</v>
-      </c>
+      <c r="I13" s="1"/>
     </row>
     <row r="14" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>44939</v>
       </c>
-      <c r="B14" s="1">
-        <v>2700</v>
-      </c>
-      <c r="C14" s="1">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="D14" s="1">
-        <v>20</v>
-      </c>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
-      <c r="G14" s="1">
-        <v>155</v>
-      </c>
-      <c r="H14" s="1">
-        <v>1</v>
-      </c>
-      <c r="I14" s="1">
-        <v>184</v>
-      </c>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
     </row>
     <row r="15" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>44940</v>
       </c>
-      <c r="B15" s="1">
-        <v>2800</v>
-      </c>
+      <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
-      <c r="H15" s="1">
-        <v>1</v>
-      </c>
-      <c r="I15" s="1">
-        <v>185</v>
-      </c>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
     </row>
     <row r="16" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>44941</v>
       </c>
-      <c r="B16" s="1">
-        <v>2400</v>
-      </c>
+      <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
-      <c r="I16" s="1">
-        <v>183</v>
-      </c>
+      <c r="I16" s="1"/>
     </row>
     <row r="17" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>44942</v>
       </c>
-      <c r="B17" s="1">
-        <v>1950</v>
-      </c>
-      <c r="C17" s="1">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="D17" s="1">
-        <v>18.5</v>
-      </c>
-      <c r="E17" s="1">
-        <v>130</v>
-      </c>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
-      <c r="I17" s="1">
-        <v>184</v>
-      </c>
+      <c r="I17" s="1"/>
     </row>
     <row r="18" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>44943</v>
       </c>
-      <c r="B18" s="1">
-        <v>1900</v>
-      </c>
+      <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
-      <c r="F18" s="1">
-        <v>145</v>
-      </c>
+      <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
-      <c r="I18" s="1">
-        <v>182</v>
-      </c>
+      <c r="I18" s="1"/>
     </row>
     <row r="19" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>44944</v>
       </c>
-      <c r="B19" s="1">
-        <v>2500</v>
-      </c>
+      <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
-      <c r="G19" s="1">
-        <v>165</v>
-      </c>
-      <c r="H19" s="1">
-        <v>1</v>
-      </c>
-      <c r="I19" s="1">
-        <v>183</v>
-      </c>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
     </row>
     <row r="20" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>44945</v>
       </c>
-      <c r="B20" s="1">
-        <v>2900</v>
-      </c>
+      <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
-      <c r="E20" s="1">
-        <v>135</v>
-      </c>
+      <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
-      <c r="I20" s="1">
-        <v>183</v>
-      </c>
+      <c r="I20" s="1"/>
     </row>
     <row r="21" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>44946</v>
       </c>
-      <c r="B21" s="1">
-        <v>2100</v>
-      </c>
-      <c r="C21" s="1">
-        <v>1.7</v>
-      </c>
-      <c r="D21" s="1">
-        <v>13.5</v>
-      </c>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
       <c r="E21" s="1"/>
-      <c r="F21" s="1">
-        <v>145</v>
-      </c>
+      <c r="F21" s="1"/>
       <c r="G21" s="1"/>
-      <c r="H21" s="1">
-        <v>1</v>
-      </c>
-      <c r="I21" s="1">
-        <v>183</v>
-      </c>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
     </row>
     <row r="22" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>44947</v>
       </c>
-      <c r="B22" s="1">
-        <v>1600</v>
-      </c>
+      <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
-      <c r="H22" s="1">
-        <v>1</v>
-      </c>
-      <c r="I22" s="1">
-        <v>182</v>
-      </c>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
     </row>
     <row r="23" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>44948</v>
       </c>
-      <c r="B23" s="1">
-        <v>1500</v>
-      </c>
-      <c r="C23" s="1">
-        <v>1.4</v>
-      </c>
-      <c r="D23" s="1">
-        <v>10</v>
-      </c>
-      <c r="E23" s="1">
-        <v>135</v>
-      </c>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
-      <c r="I23" s="1">
-        <v>182</v>
-      </c>
+      <c r="I23" s="1"/>
     </row>
     <row r="24" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>44949</v>
       </c>
-      <c r="B24" s="1">
-        <v>2000</v>
-      </c>
+      <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
-      <c r="I24" s="1">
-        <v>180</v>
-      </c>
+      <c r="I24" s="1"/>
     </row>
     <row r="25" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>44950</v>
       </c>
-      <c r="B25" s="1">
-        <v>1950</v>
-      </c>
-      <c r="C25" s="1">
-        <v>2</v>
-      </c>
-      <c r="D25" s="1">
-        <f>C25*8</f>
-        <v>16</v>
-      </c>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
-      <c r="G25" s="1">
-        <v>165</v>
-      </c>
+      <c r="G25" s="1"/>
       <c r="H25" s="1"/>
-      <c r="I25" s="1">
-        <v>181</v>
-      </c>
+      <c r="I25" s="1"/>
     </row>
     <row r="26" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>44951</v>
       </c>
-      <c r="B26" s="1">
-        <v>2250</v>
-      </c>
-      <c r="C26" s="1">
-        <v>4.5</v>
-      </c>
-      <c r="D26" s="1">
-        <v>41.5</v>
-      </c>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
-      <c r="H26" s="1">
-        <v>1</v>
-      </c>
-      <c r="I26" s="1">
-        <v>180</v>
-      </c>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
     </row>
     <row r="27" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>44952</v>
       </c>
-      <c r="B27" s="1">
-        <v>2550</v>
-      </c>
-      <c r="C27" s="1">
-        <v>4</v>
-      </c>
-      <c r="D27" s="1">
-        <v>35</v>
-      </c>
-      <c r="E27" s="1">
-        <v>140</v>
-      </c>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
-      <c r="H27" s="1">
-        <v>1</v>
-      </c>
-      <c r="I27" s="1">
-        <v>181</v>
-      </c>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
     </row>
     <row r="28" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>44953</v>
       </c>
-      <c r="B28" s="1">
-        <v>2400</v>
-      </c>
-      <c r="C28" s="1">
-        <v>1</v>
-      </c>
-      <c r="D28" s="1">
-        <v>7</v>
-      </c>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
       <c r="E28" s="1"/>
-      <c r="F28" s="1">
-        <v>145</v>
-      </c>
+      <c r="F28" s="1"/>
       <c r="G28" s="1"/>
-      <c r="H28" s="1">
-        <v>1</v>
-      </c>
-      <c r="I28" s="1">
-        <v>179</v>
-      </c>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
     </row>
     <row r="29" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>44954</v>
       </c>
-      <c r="B29" s="1">
-        <v>2650</v>
-      </c>
+      <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
-      <c r="H29" s="1">
-        <v>1</v>
-      </c>
-      <c r="I29" s="1">
-        <v>180</v>
-      </c>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
     </row>
     <row r="30" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>44955</v>
       </c>
-      <c r="B30" s="1">
-        <v>2350</v>
-      </c>
-      <c r="C30" s="1">
-        <v>2</v>
-      </c>
-      <c r="D30" s="1">
-        <v>15.5</v>
-      </c>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
-      <c r="G30" s="1">
-        <v>165</v>
-      </c>
+      <c r="G30" s="1"/>
       <c r="H30" s="1"/>
-      <c r="I30" s="1">
-        <v>179</v>
-      </c>
+      <c r="I30" s="1"/>
     </row>
     <row r="31" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>44956</v>
       </c>
-      <c r="B31" s="1">
-        <v>2200</v>
-      </c>
-      <c r="C31" s="1">
-        <v>3.1</v>
-      </c>
-      <c r="D31" s="1">
-        <v>25.5</v>
-      </c>
-      <c r="E31" s="1">
-        <v>140</v>
-      </c>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
-      <c r="I31" s="1">
-        <v>179</v>
-      </c>
+      <c r="I31" s="1"/>
     </row>
     <row r="32" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>44957</v>
       </c>
-      <c r="B32" s="1">
-        <v>1800</v>
-      </c>
+      <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
-      <c r="I32" s="1">
-        <v>179</v>
-      </c>
+      <c r="I32" s="1"/>
     </row>
     <row r="33" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <v>44958</v>
       </c>
-      <c r="B33" s="1">
-        <v>2400</v>
-      </c>
+      <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
-      <c r="I33" s="1">
-        <v>171.2</v>
-      </c>
+      <c r="I33" s="1"/>
     </row>
     <row r="34" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <v>44959</v>
       </c>
-      <c r="B34" s="1">
-        <v>1300</v>
-      </c>
+      <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
-      <c r="I34" s="1">
-        <v>169</v>
-      </c>
+      <c r="I34" s="1"/>
     </row>
     <row r="35" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <v>44960</v>
       </c>
-      <c r="B35" s="1">
-        <v>1700</v>
-      </c>
+      <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
-      <c r="I35" s="1">
-        <v>167.8</v>
-      </c>
+      <c r="I35" s="1"/>
     </row>
     <row r="36" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <v>44961</v>
       </c>
-      <c r="B36" s="1">
-        <v>2200</v>
-      </c>
+      <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
@@ -1216,9 +930,7 @@
       <c r="A37" s="2">
         <v>44962</v>
       </c>
-      <c r="B37" s="1">
-        <v>2100</v>
-      </c>
+      <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
@@ -1365,9 +1077,7 @@
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
-      <c r="F48" s="1">
-        <v>85</v>
-      </c>
+      <c r="F48" s="1"/>
       <c r="G48" s="1"/>
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
@@ -1393,9 +1103,7 @@
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
-      <c r="F50" s="1">
-        <v>135</v>
-      </c>
+      <c r="F50" s="1"/>
       <c r="G50" s="1"/>
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
@@ -1407,9 +1115,7 @@
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
-      <c r="E51" s="1">
-        <v>115</v>
-      </c>
+      <c r="E51" s="1"/>
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
       <c r="H51" s="1"/>
@@ -1424,9 +1130,7 @@
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
-      <c r="G52" s="1">
-        <v>185</v>
-      </c>
+      <c r="G52" s="1"/>
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
     </row>
@@ -1470,7 +1174,9 @@
       <c r="I55" s="1"/>
     </row>
     <row r="56" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A56" s="2"/>
+      <c r="A56" s="2">
+        <v>44981</v>
+      </c>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
@@ -1481,7 +1187,9 @@
       <c r="I56" s="1"/>
     </row>
     <row r="57" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A57" s="2"/>
+      <c r="A57" s="2">
+        <v>44982</v>
+      </c>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
@@ -1492,7 +1200,9 @@
       <c r="I57" s="1"/>
     </row>
     <row r="58" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A58" s="2"/>
+      <c r="A58" s="2">
+        <v>44983</v>
+      </c>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
@@ -1503,7 +1213,9 @@
       <c r="I58" s="1"/>
     </row>
     <row r="59" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A59" s="2"/>
+      <c r="A59" s="2">
+        <v>44984</v>
+      </c>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -1514,7 +1226,9 @@
       <c r="I59" s="1"/>
     </row>
     <row r="60" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A60" s="2"/>
+      <c r="A60" s="2">
+        <v>44985</v>
+      </c>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
@@ -1525,7 +1239,9 @@
       <c r="I60" s="1"/>
     </row>
     <row r="61" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A61" s="2"/>
+      <c r="A61" s="2">
+        <v>44986</v>
+      </c>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
@@ -1535,6 +1251,882 @@
       <c r="H61" s="1"/>
       <c r="I61" s="1"/>
     </row>
+    <row r="62" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A62" s="2">
+        <v>44987</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A63" s="2">
+        <v>44988</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A64" s="2">
+        <v>44989</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A65" s="2">
+        <v>44990</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A66" s="2">
+        <v>44991</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A67" s="2">
+        <v>44992</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A68" s="2">
+        <v>44993</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A69" s="2">
+        <v>44994</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A70" s="2">
+        <v>44995</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A71" s="2">
+        <v>44996</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A72" s="2">
+        <v>44997</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A73" s="2">
+        <v>44998</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A74" s="2">
+        <v>44999</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A75" s="2">
+        <v>45000</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A76" s="2">
+        <v>45001</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A77" s="2">
+        <v>45002</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A78" s="2">
+        <v>45003</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A79" s="2">
+        <v>45004</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A80" s="2">
+        <v>45005</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A81" s="2">
+        <v>45006</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A82" s="2">
+        <v>45007</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A83" s="2">
+        <v>45008</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A84" s="2">
+        <v>45009</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A85" s="2">
+        <v>45010</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A86" s="2">
+        <v>45011</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A87" s="2">
+        <v>45012</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A88" s="2">
+        <v>45013</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A89" s="2">
+        <v>45014</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A90" s="2">
+        <v>45015</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A91" s="2">
+        <v>45016</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A92" s="2">
+        <v>45017</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A93" s="2">
+        <v>45018</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A94" s="2">
+        <v>45019</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A95" s="2">
+        <v>45020</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A96" s="2">
+        <v>45021</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A97" s="2">
+        <v>45022</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A98" s="2">
+        <v>45023</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A99" s="2">
+        <v>45024</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A100" s="2">
+        <v>45025</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A101" s="2">
+        <v>45026</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A102" s="2">
+        <v>45027</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A103" s="2">
+        <v>45028</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A104" s="2">
+        <v>45029</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A105" s="2">
+        <v>45030</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A106" s="2">
+        <v>45031</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A107" s="2">
+        <v>45032</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A108" s="2">
+        <v>45033</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A109" s="2">
+        <v>45034</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A110" s="2">
+        <v>45035</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A111" s="2">
+        <v>45036</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A112" s="2">
+        <v>45037</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A113" s="2">
+        <v>45038</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A114" s="2">
+        <v>45039</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A115" s="2">
+        <v>45040</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A116" s="2">
+        <v>45041</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A117" s="2">
+        <v>45042</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A118" s="2">
+        <v>45043</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A119" s="2">
+        <v>45044</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A120" s="2">
+        <v>45045</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A121" s="2">
+        <v>45046</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A122" s="2">
+        <v>45047</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A123" s="2">
+        <v>45048</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A124" s="2">
+        <v>45049</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A125" s="2">
+        <v>45050</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A126" s="2">
+        <v>45051</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A127" s="2">
+        <v>45052</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A128" s="2">
+        <v>45053</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A129" s="2">
+        <v>45054</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A130" s="2">
+        <v>45055</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A131" s="2">
+        <v>45056</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A132" s="2">
+        <v>45057</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A133" s="2">
+        <v>45058</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A134" s="2">
+        <v>45059</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A135" s="2">
+        <v>45060</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A136" s="2">
+        <v>45061</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A137" s="2">
+        <v>45062</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A138" s="2">
+        <v>45063</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A139" s="2">
+        <v>45064</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A140" s="2">
+        <v>45065</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A141" s="2">
+        <v>45066</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A142" s="2">
+        <v>45067</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A143" s="2">
+        <v>45068</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A144" s="2">
+        <v>45069</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A145" s="2">
+        <v>45070</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A146" s="2">
+        <v>45071</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A147" s="2">
+        <v>45072</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A148" s="2">
+        <v>45073</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A149" s="2">
+        <v>45074</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A150" s="2">
+        <v>45075</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A151" s="2">
+        <v>45076</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A152" s="2">
+        <v>45077</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A153" s="2">
+        <v>45078</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A154" s="2">
+        <v>45079</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A155" s="2">
+        <v>45080</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A156" s="2">
+        <v>45081</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A157" s="2">
+        <v>45082</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A158" s="2">
+        <v>45083</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A159" s="2">
+        <v>45084</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A160" s="2">
+        <v>45085</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A161" s="2">
+        <v>45086</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A162" s="2">
+        <v>45087</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A163" s="2">
+        <v>45088</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A164" s="2">
+        <v>45089</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A165" s="2">
+        <v>45090</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A166" s="2">
+        <v>45091</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A167" s="2">
+        <v>45092</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A168" s="2">
+        <v>45093</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A169" s="2">
+        <v>45094</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A170" s="2">
+        <v>45095</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A171" s="2">
+        <v>45096</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A172" s="2">
+        <v>45097</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A173" s="2">
+        <v>45098</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A174" s="2">
+        <v>45099</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A175" s="2">
+        <v>45100</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A176" s="2">
+        <v>45101</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A177" s="2">
+        <v>45102</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A178" s="2">
+        <v>45103</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A179" s="2">
+        <v>45104</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A180" s="2">
+        <v>45105</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A181" s="2">
+        <v>45106</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A182" s="2">
+        <v>45107</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A183" s="2">
+        <v>45108</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A184" s="2">
+        <v>45109</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A185" s="2">
+        <v>45110</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A186" s="2">
+        <v>45111</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A187" s="2">
+        <v>45112</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A188" s="2">
+        <v>45113</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A189" s="2">
+        <v>45114</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A190" s="2">
+        <v>45115</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A191" s="2">
+        <v>45116</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A192" s="2">
+        <v>45117</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A193" s="2">
+        <v>45118</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A194" s="2">
+        <v>45119</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A195" s="2">
+        <v>45120</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A196" s="2">
+        <v>45121</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A197" s="2">
+        <v>45122</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A198" s="2">
+        <v>45123</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A199" s="2">
+        <v>45124</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A200" s="2">
+        <v>45125</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A201" s="2">
+        <v>45126</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A202" s="2">
+        <v>45127</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A203" s="2">
+        <v>45128</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A204" s="2">
+        <v>45129</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A205" s="2">
+        <v>45130</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A206" s="2">
+        <v>45131</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A207" s="2">
+        <v>45132</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A208" s="2">
+        <v>45133</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A209" s="2">
+        <v>45134</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A210" s="2">
+        <v>45135</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A211" s="2">
+        <v>45136</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A212" s="2">
+        <v>45137</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A213" s="2">
+        <v>45138</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A214" s="2">
+        <v>45139</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A215" s="2">
+        <v>45140</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A216" s="2">
+        <v>45141</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A217" s="2">
+        <v>45142</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A218" s="2">
+        <v>45143</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A219" s="2">
+        <v>45144</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A220" s="2">
+        <v>45145</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A221" s="2">
+        <v>45146</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A222" s="2">
+        <v>45147</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A223" s="2">
+        <v>45148</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A224" s="2">
+        <v>45149</v>
+      </c>
+    </row>
+    <row r="225" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A225" s="2">
+        <v>45150</v>
+      </c>
+    </row>
+    <row r="226" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A226" s="2">
+        <v>45151</v>
+      </c>
+    </row>
+    <row r="227" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A227" s="2">
+        <v>45152</v>
+      </c>
+    </row>
+    <row r="228" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A228" s="2">
+        <v>45153</v>
+      </c>
+    </row>
+    <row r="229" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A229" s="2">
+        <v>45154</v>
+      </c>
+    </row>
+    <row r="230" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A230" s="2">
+        <v>45155</v>
+      </c>
+    </row>
+    <row r="231" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A231" s="2">
+        <v>45156</v>
+      </c>
+    </row>
+    <row r="232" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A232" s="2">
+        <v>45157</v>
+      </c>
+    </row>
+    <row r="233" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A233" s="2">
+        <v>45158</v>
+      </c>
+    </row>
+    <row r="234" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A234" s="2">
+        <v>45159</v>
+      </c>
+    </row>
+    <row r="235" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A235" s="2">
+        <v>45160</v>
+      </c>
+      <c r="F235">
+        <v>165</v>
+      </c>
+      <c r="I235">
+        <v>185.6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Health Tracker.xlsx
+++ b/Health Tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tejas Srivatsav\Health Tracking\Health-Tracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84B844D0-A135-4B04-86E1-F455C5DC8A1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F3E799D-E5DC-4C89-83A1-504F5B7874FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{90E82339-6802-4A1C-BF53-9E12DBCFBAFB}"/>
   </bookViews>
@@ -422,11 +422,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{736870FE-D46B-4E9F-98AE-0ACDFD702F2E}">
-  <dimension ref="A1:I235"/>
+  <dimension ref="A1:I237"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A220" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L13" sqref="L13"/>
+      <selection pane="bottomLeft" activeCell="G236" sqref="G236"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2127,6 +2127,19 @@
         <v>185.6</v>
       </c>
     </row>
+    <row r="236" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A236" s="2">
+        <v>45161</v>
+      </c>
+      <c r="I236">
+        <v>186.6</v>
+      </c>
+    </row>
+    <row r="237" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A237" s="2">
+        <v>45162</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Health Tracker.xlsx
+++ b/Health Tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tejas Srivatsav\Health Tracking\Health-Tracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F3E799D-E5DC-4C89-83A1-504F5B7874FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B29EEB7-6E5F-42D2-AB59-094D3F24A8CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{90E82339-6802-4A1C-BF53-9E12DBCFBAFB}"/>
   </bookViews>
@@ -426,7 +426,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A220" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G236" sqref="G236"/>
+      <selection pane="bottomLeft" activeCell="E240" sqref="E240"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2139,6 +2139,12 @@
       <c r="A237" s="2">
         <v>45162</v>
       </c>
+      <c r="E237">
+        <v>155</v>
+      </c>
+      <c r="I237">
+        <v>188.4</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Health Tracker.xlsx
+++ b/Health Tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tejas Srivatsav\Health Tracking\Health-Tracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B29EEB7-6E5F-42D2-AB59-094D3F24A8CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2A135D4-7FDC-4525-81DC-BD70C4B77F49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{90E82339-6802-4A1C-BF53-9E12DBCFBAFB}"/>
   </bookViews>
@@ -422,11 +422,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{736870FE-D46B-4E9F-98AE-0ACDFD702F2E}">
-  <dimension ref="A1:I237"/>
+  <dimension ref="A1:I238"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A220" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E240" sqref="E240"/>
+      <selection pane="bottomLeft" activeCell="C239" sqref="C239"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2146,6 +2146,14 @@
         <v>188.4</v>
       </c>
     </row>
+    <row r="238" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A238" s="2">
+        <v>45163</v>
+      </c>
+      <c r="I238">
+        <v>187.2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Health Tracker.xlsx
+++ b/Health Tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tejas Srivatsav\Health Tracking\Health-Tracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2A135D4-7FDC-4525-81DC-BD70C4B77F49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EFD0B2B-ED30-410D-91BA-C729BF9822BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{90E82339-6802-4A1C-BF53-9E12DBCFBAFB}"/>
   </bookViews>
@@ -422,11 +422,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{736870FE-D46B-4E9F-98AE-0ACDFD702F2E}">
-  <dimension ref="A1:I238"/>
+  <dimension ref="A1:I240"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A220" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C239" sqref="C239"/>
+      <selection pane="bottomLeft" activeCell="J241" sqref="J241"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2154,6 +2154,19 @@
         <v>187.2</v>
       </c>
     </row>
+    <row r="239" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A239" s="2">
+        <v>45164</v>
+      </c>
+    </row>
+    <row r="240" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A240" s="2">
+        <v>45165</v>
+      </c>
+      <c r="I240">
+        <v>188.2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Health Tracker.xlsx
+++ b/Health Tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tejas Srivatsav\Health Tracking\Health-Tracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EFD0B2B-ED30-410D-91BA-C729BF9822BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D3D7A64-5641-45E5-B37C-ED592D45E5B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{90E82339-6802-4A1C-BF53-9E12DBCFBAFB}"/>
   </bookViews>
@@ -422,7 +422,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{736870FE-D46B-4E9F-98AE-0ACDFD702F2E}">
-  <dimension ref="A1:I240"/>
+  <dimension ref="A1:I241"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A220" activePane="bottomLeft" state="frozen"/>
@@ -2167,6 +2167,14 @@
         <v>188.2</v>
       </c>
     </row>
+    <row r="241" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A241" s="2">
+        <v>45166</v>
+      </c>
+      <c r="I241">
+        <v>185</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Health Tracker.xlsx
+++ b/Health Tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tejas Srivatsav\Health Tracking\Health-Tracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D3D7A64-5641-45E5-B37C-ED592D45E5B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE83B02E-76E1-4A61-BA4A-5B39B8FF72F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{90E82339-6802-4A1C-BF53-9E12DBCFBAFB}"/>
   </bookViews>
@@ -422,11 +422,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{736870FE-D46B-4E9F-98AE-0ACDFD702F2E}">
-  <dimension ref="A1:I241"/>
+  <dimension ref="A1:I242"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A220" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J241" sqref="J241"/>
+      <selection pane="bottomLeft" activeCell="A241" sqref="A241:A242"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2175,6 +2175,14 @@
         <v>185</v>
       </c>
     </row>
+    <row r="242" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A242" s="2">
+        <v>45167</v>
+      </c>
+      <c r="I242">
+        <v>186.4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Health Tracker.xlsx
+++ b/Health Tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tejas Srivatsav\Health Tracking\Health-Tracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE83B02E-76E1-4A61-BA4A-5B39B8FF72F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1174A1B7-95ED-485D-8C17-349C28A1BC39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{90E82339-6802-4A1C-BF53-9E12DBCFBAFB}"/>
   </bookViews>
@@ -422,11 +422,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{736870FE-D46B-4E9F-98AE-0ACDFD702F2E}">
-  <dimension ref="A1:I242"/>
+  <dimension ref="A1:I243"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A220" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A241" sqref="A241:A242"/>
+      <selection pane="bottomLeft" activeCell="J244" sqref="J244"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2183,6 +2183,14 @@
         <v>186.4</v>
       </c>
     </row>
+    <row r="243" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A243" s="2">
+        <v>45168</v>
+      </c>
+      <c r="I243">
+        <v>186.8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Health Tracker.xlsx
+++ b/Health Tracker.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tejas Srivatsav\Health Tracking\Health-Tracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1174A1B7-95ED-485D-8C17-349C28A1BC39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4654AA5B-F995-4C40-8D3E-9E0F07269DC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{90E82339-6802-4A1C-BF53-9E12DBCFBAFB}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="9960" xr2:uid="{90E82339-6802-4A1C-BF53-9E12DBCFBAFB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -422,11 +422,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{736870FE-D46B-4E9F-98AE-0ACDFD702F2E}">
-  <dimension ref="A1:I243"/>
+  <dimension ref="A1:I244"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A220" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J244" sqref="J244"/>
+      <pane ySplit="1" topLeftCell="A232" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I245" sqref="I245"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2171,6 +2171,9 @@
       <c r="A241" s="2">
         <v>45166</v>
       </c>
+      <c r="G241">
+        <v>135</v>
+      </c>
       <c r="I241">
         <v>185</v>
       </c>
@@ -2189,6 +2192,17 @@
       </c>
       <c r="I243">
         <v>186.8</v>
+      </c>
+    </row>
+    <row r="244" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A244" s="2">
+        <v>45169</v>
+      </c>
+      <c r="E244">
+        <v>135</v>
+      </c>
+      <c r="I244">
+        <v>187.6</v>
       </c>
     </row>
   </sheetData>

--- a/Health Tracker.xlsx
+++ b/Health Tracker.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tejas Srivatsav\Health Tracking\Health-Tracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4654AA5B-F995-4C40-8D3E-9E0F07269DC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D0FCE2B-A301-4B4F-8B67-8F59905F0FB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="9960" xr2:uid="{90E82339-6802-4A1C-BF53-9E12DBCFBAFB}"/>
+    <workbookView xWindow="2268" yWindow="3720" windowWidth="17280" windowHeight="9960" xr2:uid="{90E82339-6802-4A1C-BF53-9E12DBCFBAFB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -422,11 +422,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{736870FE-D46B-4E9F-98AE-0ACDFD702F2E}">
-  <dimension ref="A1:I244"/>
+  <dimension ref="A1:I245"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A232" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I245" sqref="I245"/>
+      <selection pane="bottomLeft" activeCell="G245" sqref="G245"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2205,6 +2205,14 @@
         <v>187.6</v>
       </c>
     </row>
+    <row r="245" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A245" s="2">
+        <v>45170</v>
+      </c>
+      <c r="I245">
+        <v>187.6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Health Tracker.xlsx
+++ b/Health Tracker.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tejas Srivatsav\Health Tracking\Health-Tracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D0FCE2B-A301-4B4F-8B67-8F59905F0FB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0663F9D0-14BF-4EBE-BF4F-48B69135D17E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2268" yWindow="3720" windowWidth="17280" windowHeight="9960" xr2:uid="{90E82339-6802-4A1C-BF53-9E12DBCFBAFB}"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="9960" xr2:uid="{90E82339-6802-4A1C-BF53-9E12DBCFBAFB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Date</t>
   </si>
@@ -63,6 +63,9 @@
   </si>
   <si>
     <t>Deadlift 5RM (lbs)</t>
+  </si>
+  <si>
+    <t>bodyweight</t>
   </si>
 </sst>
 </file>
@@ -422,11 +425,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{736870FE-D46B-4E9F-98AE-0ACDFD702F2E}">
-  <dimension ref="A1:I245"/>
+  <dimension ref="A1:I246"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A232" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G245" sqref="G245"/>
+      <selection pane="bottomLeft" activeCell="G247" sqref="G247"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2213,6 +2216,20 @@
         <v>187.6</v>
       </c>
     </row>
+    <row r="246" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A246" s="2">
+        <v>45171</v>
+      </c>
+      <c r="F246" t="s">
+        <v>9</v>
+      </c>
+      <c r="G246">
+        <v>135</v>
+      </c>
+      <c r="I246">
+        <v>187.2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Health Tracker.xlsx
+++ b/Health Tracker.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tejas Srivatsav\Health Tracking\Health-Tracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0663F9D0-14BF-4EBE-BF4F-48B69135D17E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DCE6C05-BA47-4339-89EF-6124AE318EBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="9960" xr2:uid="{90E82339-6802-4A1C-BF53-9E12DBCFBAFB}"/>
+    <workbookView xWindow="2268" yWindow="3720" windowWidth="17280" windowHeight="9960" xr2:uid="{90E82339-6802-4A1C-BF53-9E12DBCFBAFB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -425,11 +425,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{736870FE-D46B-4E9F-98AE-0ACDFD702F2E}">
-  <dimension ref="A1:I246"/>
+  <dimension ref="A1:I247"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A232" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G247" sqref="G247"/>
+      <selection pane="bottomLeft" activeCell="C245" sqref="C245"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2230,6 +2230,14 @@
         <v>187.2</v>
       </c>
     </row>
+    <row r="247" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A247" s="2">
+        <v>45172</v>
+      </c>
+      <c r="I247">
+        <v>188.8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Health Tracker.xlsx
+++ b/Health Tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tejas Srivatsav\Health Tracking\Health-Tracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DCE6C05-BA47-4339-89EF-6124AE318EBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19FE4A0F-CCA0-4523-9DCB-9BDF36ABECD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2268" yWindow="3720" windowWidth="17280" windowHeight="9960" xr2:uid="{90E82339-6802-4A1C-BF53-9E12DBCFBAFB}"/>
   </bookViews>
@@ -425,11 +425,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{736870FE-D46B-4E9F-98AE-0ACDFD702F2E}">
-  <dimension ref="A1:I247"/>
+  <dimension ref="A1:I250"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A232" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C245" sqref="C245"/>
+      <pane ySplit="1" topLeftCell="A237" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J246" sqref="J246"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2238,6 +2238,24 @@
         <v>188.8</v>
       </c>
     </row>
+    <row r="248" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A248" s="2">
+        <v>45173</v>
+      </c>
+    </row>
+    <row r="249" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A249" s="2">
+        <v>45174</v>
+      </c>
+    </row>
+    <row r="250" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A250" s="2">
+        <v>45175</v>
+      </c>
+      <c r="I250">
+        <v>191.2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Health Tracker.xlsx
+++ b/Health Tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tejas Srivatsav\Health Tracking\Health-Tracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19FE4A0F-CCA0-4523-9DCB-9BDF36ABECD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15406E07-34EC-471D-A2F0-2609D64BE44F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2268" yWindow="3720" windowWidth="17280" windowHeight="9960" xr2:uid="{90E82339-6802-4A1C-BF53-9E12DBCFBAFB}"/>
   </bookViews>
@@ -429,7 +429,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A237" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J246" sqref="J246"/>
+      <selection pane="bottomLeft" activeCell="I251" sqref="I251"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2253,7 +2253,7 @@
         <v>45175</v>
       </c>
       <c r="I250">
-        <v>191.2</v>
+        <v>191.4</v>
       </c>
     </row>
   </sheetData>

--- a/Health Tracker.xlsx
+++ b/Health Tracker.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tejas Srivatsav\Health Tracking\Health-Tracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15406E07-34EC-471D-A2F0-2609D64BE44F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F9AEFDE-B410-4BF9-843E-A0E35C5D0677}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2268" yWindow="3720" windowWidth="17280" windowHeight="9960" xr2:uid="{90E82339-6802-4A1C-BF53-9E12DBCFBAFB}"/>
   </bookViews>
@@ -425,11 +425,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{736870FE-D46B-4E9F-98AE-0ACDFD702F2E}">
-  <dimension ref="A1:I250"/>
+  <dimension ref="A1:I251"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A237" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I251" sqref="I251"/>
+      <selection pane="bottomLeft" activeCell="B250" sqref="B250"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2256,6 +2256,14 @@
         <v>191.4</v>
       </c>
     </row>
+    <row r="251" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A251" s="2">
+        <v>45176</v>
+      </c>
+      <c r="I251">
+        <v>190.4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Health Tracker.xlsx
+++ b/Health Tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tejas Srivatsav\Health Tracking\Health-Tracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F9AEFDE-B410-4BF9-843E-A0E35C5D0677}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35E32F1A-14AE-43D1-99A7-A7BEBDB4CB50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2268" yWindow="3720" windowWidth="17280" windowHeight="9960" xr2:uid="{90E82339-6802-4A1C-BF53-9E12DBCFBAFB}"/>
   </bookViews>
@@ -107,10 +107,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -425,11 +426,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{736870FE-D46B-4E9F-98AE-0ACDFD702F2E}">
-  <dimension ref="A1:I251"/>
+  <dimension ref="A1:I252"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A237" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B250" sqref="B250"/>
+      <pane ySplit="1" topLeftCell="A241" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C252" sqref="C252"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2264,6 +2265,14 @@
         <v>190.4</v>
       </c>
     </row>
+    <row r="252" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A252" s="3">
+        <v>45177</v>
+      </c>
+      <c r="I252">
+        <v>193</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Health Tracker.xlsx
+++ b/Health Tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tejas Srivatsav\Health Tracking\Health-Tracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35E32F1A-14AE-43D1-99A7-A7BEBDB4CB50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EABCB15-788A-45E9-A509-A8091BB458D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2268" yWindow="3720" windowWidth="17280" windowHeight="9960" xr2:uid="{90E82339-6802-4A1C-BF53-9E12DBCFBAFB}"/>
   </bookViews>
@@ -107,11 +107,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -426,11 +425,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{736870FE-D46B-4E9F-98AE-0ACDFD702F2E}">
-  <dimension ref="A1:I252"/>
+  <dimension ref="A1:I267"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A241" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C252" sqref="C252"/>
+      <pane ySplit="1" topLeftCell="A259" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E266" sqref="E266"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2265,12 +2264,93 @@
         <v>190.4</v>
       </c>
     </row>
-    <row r="252" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A252" s="3">
+    <row r="252" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A252" s="2">
         <v>45177</v>
       </c>
       <c r="I252">
         <v>193</v>
+      </c>
+    </row>
+    <row r="253" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A253" s="2">
+        <v>45178</v>
+      </c>
+    </row>
+    <row r="254" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A254" s="2">
+        <v>45179</v>
+      </c>
+    </row>
+    <row r="255" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A255" s="2">
+        <v>45180</v>
+      </c>
+    </row>
+    <row r="256" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A256" s="2">
+        <v>45181</v>
+      </c>
+    </row>
+    <row r="257" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A257" s="2">
+        <v>45182</v>
+      </c>
+    </row>
+    <row r="258" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A258" s="2">
+        <v>45183</v>
+      </c>
+    </row>
+    <row r="259" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A259" s="2">
+        <v>45184</v>
+      </c>
+    </row>
+    <row r="260" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A260" s="2">
+        <v>45185</v>
+      </c>
+    </row>
+    <row r="261" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A261" s="2">
+        <v>45186</v>
+      </c>
+    </row>
+    <row r="262" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A262" s="2">
+        <v>45187</v>
+      </c>
+    </row>
+    <row r="263" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A263" s="2">
+        <v>45188</v>
+      </c>
+    </row>
+    <row r="264" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A264" s="2">
+        <v>45189</v>
+      </c>
+    </row>
+    <row r="265" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A265" s="2">
+        <v>45190</v>
+      </c>
+    </row>
+    <row r="266" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A266" s="2">
+        <v>45191</v>
+      </c>
+      <c r="E266">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="267" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A267" s="2">
+        <v>45192</v>
+      </c>
+      <c r="I267">
+        <v>184.8</v>
       </c>
     </row>
   </sheetData>

--- a/Health Tracker.xlsx
+++ b/Health Tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tejas Srivatsav\Health Tracking\Health-Tracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EABCB15-788A-45E9-A509-A8091BB458D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A73B389-15CE-4B7D-9531-C952942F50DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2268" yWindow="3720" windowWidth="17280" windowHeight="9960" xr2:uid="{90E82339-6802-4A1C-BF53-9E12DBCFBAFB}"/>
   </bookViews>
@@ -425,11 +425,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{736870FE-D46B-4E9F-98AE-0ACDFD702F2E}">
-  <dimension ref="A1:I267"/>
+  <dimension ref="A1:I268"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A259" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E266" sqref="E266"/>
+      <selection pane="bottomLeft" activeCell="F270" sqref="F270"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2353,6 +2353,14 @@
         <v>184.8</v>
       </c>
     </row>
+    <row r="268" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A268" s="2">
+        <v>45193</v>
+      </c>
+      <c r="I268">
+        <v>183.4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Health Tracker.xlsx
+++ b/Health Tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tejas Srivatsav\Health Tracking\Health-Tracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A73B389-15CE-4B7D-9531-C952942F50DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B096A4F-36FB-4B4D-9A04-84E435B99D9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2268" yWindow="3720" windowWidth="17280" windowHeight="9960" xr2:uid="{90E82339-6802-4A1C-BF53-9E12DBCFBAFB}"/>
   </bookViews>
@@ -425,11 +425,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{736870FE-D46B-4E9F-98AE-0ACDFD702F2E}">
-  <dimension ref="A1:I268"/>
+  <dimension ref="A1:I270"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A259" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F270" sqref="F270"/>
+      <pane ySplit="1" topLeftCell="A261" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G271" sqref="G271"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2361,6 +2361,22 @@
         <v>183.4</v>
       </c>
     </row>
+    <row r="269" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A269" s="2">
+        <v>45194</v>
+      </c>
+      <c r="G269">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="270" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A270" s="2">
+        <v>45195</v>
+      </c>
+      <c r="I270">
+        <v>182.1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Health Tracker.xlsx
+++ b/Health Tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tejas Srivatsav\Health Tracking\Health-Tracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B096A4F-36FB-4B4D-9A04-84E435B99D9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9762D54-26D6-4690-A6D3-61007273EBA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2268" yWindow="3720" windowWidth="17280" windowHeight="9960" xr2:uid="{90E82339-6802-4A1C-BF53-9E12DBCFBAFB}"/>
   </bookViews>
@@ -425,11 +425,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{736870FE-D46B-4E9F-98AE-0ACDFD702F2E}">
-  <dimension ref="A1:I270"/>
+  <dimension ref="A1:I271"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A261" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G271" sqref="G271"/>
+      <selection pane="bottomLeft" activeCell="I273" sqref="I273"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2377,6 +2377,14 @@
         <v>182.1</v>
       </c>
     </row>
+    <row r="271" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A271" s="2">
+        <v>45196</v>
+      </c>
+      <c r="I271">
+        <v>181.5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Health Tracker.xlsx
+++ b/Health Tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tejas Srivatsav\Health Tracking\Health-Tracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9762D54-26D6-4690-A6D3-61007273EBA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F85781A-9BBC-47C0-AE03-FF04D8E9E54F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2268" yWindow="3720" windowWidth="17280" windowHeight="9960" xr2:uid="{90E82339-6802-4A1C-BF53-9E12DBCFBAFB}"/>
   </bookViews>
@@ -425,11 +425,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{736870FE-D46B-4E9F-98AE-0ACDFD702F2E}">
-  <dimension ref="A1:I271"/>
+  <dimension ref="A1:I272"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A261" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I273" sqref="I273"/>
+      <selection pane="bottomLeft" activeCell="J273" sqref="J273"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2385,6 +2385,14 @@
         <v>181.5</v>
       </c>
     </row>
+    <row r="272" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A272" s="2">
+        <v>45197</v>
+      </c>
+      <c r="I272">
+        <v>181.3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Health Tracker.xlsx
+++ b/Health Tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tejas Srivatsav\Health Tracking\Health-Tracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F85781A-9BBC-47C0-AE03-FF04D8E9E54F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6CADB3B-2FFF-4DA9-980D-6087ABF368ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2268" yWindow="3720" windowWidth="17280" windowHeight="9960" xr2:uid="{90E82339-6802-4A1C-BF53-9E12DBCFBAFB}"/>
   </bookViews>
@@ -425,11 +425,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{736870FE-D46B-4E9F-98AE-0ACDFD702F2E}">
-  <dimension ref="A1:I272"/>
+  <dimension ref="A1:I273"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A261" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J273" sqref="J273"/>
+      <selection pane="bottomLeft" activeCell="I274" sqref="I274"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2393,6 +2393,14 @@
         <v>181.3</v>
       </c>
     </row>
+    <row r="273" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A273" s="2">
+        <v>45198</v>
+      </c>
+      <c r="I273">
+        <v>182.3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
